--- a/schema.xlsx
+++ b/schema.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hunter\專案\測試專案\DBML相關\xlsx2dbmlDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hunter\專案\測試專案\DBML相關\xlsx2dbml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1060D53B-4921-4E66-AC66-C183F2A8CE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7DAFDC-FE08-4F0B-B7CA-D42873307969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="24686" windowHeight="13131" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課程相關" sheetId="4" r:id="rId1"/>
     <sheet name="學員相關" sheetId="12" r:id="rId2"/>
+    <sheet name="測驗相關" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="55">
   <si>
     <t>Table 名稱</t>
   </si>
@@ -213,12 +214,83 @@
     <t>關聯到：課程類型</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>EXAM</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>測驗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>測驗類型</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>測驗類型代碼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXAM_TYPE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXAM_TYPE_CODE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUDENT_EXAM</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>學生測驗</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>測驗代碼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檔流水號</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUDENT_EXAM_ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXAM.EXAM_TYPE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXAM.EXAM_TYPE_CODE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,6 +386,20 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -341,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +451,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -585,21 +672,21 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="8" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.765625" customWidth="1"/>
+    <col min="2" max="2" width="30.3046875" customWidth="1"/>
+    <col min="3" max="4" width="22.69140625" customWidth="1"/>
+    <col min="5" max="8" width="11.69140625" customWidth="1"/>
     <col min="9" max="9" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -648,7 +735,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -678,7 +765,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -704,7 +791,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -732,7 +819,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -758,7 +845,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -774,7 +861,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -785,7 +872,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -800,7 +887,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -825,7 +912,7 @@
       </c>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -846,7 +933,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -867,7 +954,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -878,7 +965,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -889,7 +976,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
@@ -900,7 +987,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -911,7 +998,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -922,7 +1009,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -933,7 +1020,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -944,7 +1031,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -955,7 +1042,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -977,20 +1064,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="8" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.765625" customWidth="1"/>
+    <col min="2" max="2" width="30.3046875" customWidth="1"/>
+    <col min="3" max="3" width="28.84375" customWidth="1"/>
+    <col min="4" max="4" width="22.69140625" customWidth="1"/>
+    <col min="5" max="8" width="11.69140625" customWidth="1"/>
     <col min="9" max="9" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1019,7 +1106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -1039,7 +1126,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1069,7 +1156,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1095,7 +1182,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1121,7 +1208,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1137,7 +1224,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1148,7 +1235,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1163,7 +1250,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1188,7 +1275,7 @@
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1211,7 +1298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1234,7 +1321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -1255,7 +1342,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1266,7 +1353,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1277,7 +1364,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="6"/>
       <c r="C15" s="5"/>
@@ -1288,9 +1375,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1299,9 +1384,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -1310,9 +1393,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1321,7 +1402,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1332,7 +1413,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1343,7 +1424,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1354,4 +1435,376 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D601C-64A1-40F0-B666-A2E6A9A4151E}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.07421875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/schema.xlsx
+++ b/schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hunter\專案\測試專案\DBML相關\xlsx2dbml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7DAFDC-FE08-4F0B-B7CA-D42873307969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EA6AEF-D15E-4411-9346-571F57B8025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="2263" windowWidth="24686" windowHeight="13131" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課程相關" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="64">
   <si>
     <t>Table 名稱</t>
   </si>
@@ -285,12 +285,46 @@
     <t>EXAM.EXAM_TYPE_CODE</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>此欄位會被忽略</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORED_TABLE</t>
+  </si>
+  <si>
+    <t>IGNORED_TABLE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>此資料表會被忽略</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORED_TABLE_ID</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNORED_TABLE_NAME</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -302,11 +336,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,8 +436,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +455,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,6 +501,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -670,59 +731,62 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.765625" customWidth="1"/>
-    <col min="2" max="2" width="30.3046875" customWidth="1"/>
-    <col min="3" max="4" width="22.69140625" customWidth="1"/>
-    <col min="5" max="8" width="11.69140625" customWidth="1"/>
-    <col min="9" max="9" width="60" customWidth="1"/>
+    <col min="1" max="1" width="9.23046875" customWidth="1"/>
+    <col min="2" max="2" width="28.765625" customWidth="1"/>
+    <col min="3" max="3" width="30.3046875" customWidth="1"/>
+    <col min="4" max="5" width="22.69140625" customWidth="1"/>
+    <col min="6" max="9" width="11.69140625" customWidth="1"/>
+    <col min="10" max="10" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -734,55 +798,55 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -790,53 +854,53 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -844,9 +908,9 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -860,9 +924,9 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -870,104 +934,115 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -975,79 +1050,115 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1064,56 +1175,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.69140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.765625" customWidth="1"/>
-    <col min="2" max="2" width="30.3046875" customWidth="1"/>
-    <col min="3" max="3" width="28.84375" customWidth="1"/>
-    <col min="4" max="4" width="22.69140625" customWidth="1"/>
-    <col min="5" max="8" width="11.69140625" customWidth="1"/>
-    <col min="9" max="9" width="60" customWidth="1"/>
+    <col min="2" max="2" width="28.765625" customWidth="1"/>
+    <col min="3" max="3" width="30.3046875" customWidth="1"/>
+    <col min="4" max="4" width="28.84375" customWidth="1"/>
+    <col min="5" max="5" width="22.69140625" customWidth="1"/>
+    <col min="6" max="9" width="11.69140625" customWidth="1"/>
+    <col min="10" max="10" width="60" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1127,29 +1241,29 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1157,23 +1271,23 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -1183,23 +1297,23 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1225,7 +1339,6 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1233,118 +1346,118 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="5"/>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -1352,10 +1465,10 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1363,73 +1476,74 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1439,138 +1553,141 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43D601C-64A1-40F0-B666-A2E6A9A4151E}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.53515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.4609375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.07421875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.61328125" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.53515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.4609375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:10" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="B2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1579,9 +1696,9 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1589,141 +1706,141 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8"/>
+      <c r="J10" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:10" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" s="8"/>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:10" ht="14.15" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="8"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1731,10 +1848,10 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -1742,66 +1859,67 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="9"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="5"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="3"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="9"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="8"/>
+      <c r="G21" s="9"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/schema.xlsx
+++ b/schema.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="62">
   <si>
     <t>忽略</t>
   </si>
@@ -151,6 +151,9 @@
     <t>測驗代碼</t>
   </si>
   <si>
+    <t>"VARCHAR2(16 CHAR)"</t>
+  </si>
+  <si>
     <t>EXAM.EXAM_TYPE_CODE</t>
   </si>
   <si>
@@ -266,7 +269,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +307,18 @@
       <sz val="10"/>
       <color rgb="FFff9900"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -365,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,7 +403,10 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
@@ -403,7 +421,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -728,21 +746,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="15.75">
@@ -785,10 +803,10 @@
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -806,13 +824,13 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2"/>
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
@@ -837,13 +855,13 @@
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -864,13 +882,13 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -882,7 +900,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -893,7 +911,7 @@
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>19</v>
@@ -954,10 +972,10 @@
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -975,13 +993,13 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -1006,13 +1024,13 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
@@ -1031,26 +1049,26 @@
       <c r="O11" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="A12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1060,7 +1078,7 @@
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>19</v>
@@ -1119,22 +1137,22 @@
       <c r="O15" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="17" t="s">
+      <c r="A16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="C16" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1142,32 +1160,32 @@
       <c r="O16" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="14" t="s">
+      <c r="A17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="14"/>
+      <c r="F17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="15"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1175,26 +1193,26 @@
       <c r="O17" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="A18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1207,8 +1225,8 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1224,8 +1242,8 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -1270,20 +1288,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="28.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="30.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="22.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="30.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="15.75">
@@ -1325,10 +1343,10 @@
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="15.75">
       <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1345,10 +1363,10 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="15.75">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>27</v>
@@ -1375,13 +1393,13 @@
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="15.75">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>18</v>
@@ -1401,7 +1419,7 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="15.75">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
@@ -1459,10 +1477,10 @@
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15.75">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1479,13 +1497,13 @@
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15.75">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>14</v>
@@ -1509,13 +1527,13 @@
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15.75">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -1527,7 +1545,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1537,7 +1555,7 @@
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="15.75">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>26</v>
@@ -1565,7 +1583,7 @@
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="15.75">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>19</v>
@@ -1638,8 +1656,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="15.75">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1654,8 +1672,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="15.75">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1670,8 +1688,8 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="15.75">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1690,8 +1708,8 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1706,8 +1724,8 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -1748,16 +1766,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="12.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="21.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="20.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="6.576428571428571" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="7.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="21.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="20.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="6.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="12" width="7.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="12" width="24.14785714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2004,7 +2022,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
@@ -2013,7 +2031,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -2074,10 +2092,10 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -2086,10 +2104,10 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2098,10 +2116,10 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -2116,8 +2134,8 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -2128,8 +2146,8 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
